--- a/list_of_runs_hhpcV2.xlsx
+++ b/list_of_runs_hhpcV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marie-Aude\Documents\GitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84FFE8A2-2FA7-4986-8D26-59275F90BE18}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E443E7D9-D627-4E47-A5AA-452758848957}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11870" xr2:uid="{EA25C06D-78C0-4A9D-832D-B7F49D50BD95}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="19">
   <si>
     <t>nocdm_doubling_1860</t>
   </si>
@@ -69,9 +69,6 @@
     <t>set initCond = /datascope/pradal-esm/acdm_doubling_1900/restart/19900101.cpio</t>
   </si>
   <si>
-    <t>stop after a year!</t>
-  </si>
-  <si>
     <t xml:space="preserve"> set initCond = /datascope/pradal-esm/acdm_1000yr/restart/17870101.cpio</t>
   </si>
   <si>
@@ -79,6 +76,12 @@
   </si>
   <si>
     <t>nocdm_1000yr_restart2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      </t>
+  </si>
+  <si>
+    <t>stop aA1:C48fter a year!</t>
   </si>
 </sst>
 </file>
@@ -460,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759C1D68-1B22-4876-B911-336B54C77890}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C56" sqref="A1:C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -473,17 +476,17 @@
     <col min="7" max="7" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -494,7 +497,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -502,7 +505,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -513,7 +516,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -524,7 +527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -535,7 +538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -546,13 +549,13 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -563,7 +566,7 @@
         <v>43272</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -571,7 +574,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -582,7 +585,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -593,7 +596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -604,7 +607,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -613,6 +616,9 @@
       </c>
       <c r="C16">
         <v>1880</v>
+      </c>
+      <c r="R16" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -792,7 +798,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="1"/>
     </row>
@@ -841,12 +847,12 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" s="1"/>
     </row>

--- a/list_of_runs_hhpcV2.xlsx
+++ b/list_of_runs_hhpcV2.xlsx
@@ -1,31 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marie-Aude\Documents\GitHub\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E443E7D9-D627-4E47-A5AA-452758848957}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11870" xr2:uid="{EA25C06D-78C0-4A9D-832D-B7F49D50BD95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="130404"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="34">
   <si>
     <t>nocdm_doubling_1860</t>
   </si>
@@ -82,19 +79,83 @@
   </si>
   <si>
     <t>stop aA1:C48fter a year!</t>
+  </si>
+  <si>
+    <t>22 june</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 june</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requeued</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 june</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">requeued </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 june</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">power </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="6">
@@ -154,7 +215,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -209,7 +270,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -261,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -455,38 +516,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759C1D68-1B22-4876-B911-336B54C77890}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="A1:C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28.90625" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -496,16 +558,22 @@
       <c r="C3" s="1">
         <v>43272</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="C4">
         <v>1909</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -515,8 +583,11 @@
       <c r="C5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -526,8 +597,11 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -537,8 +611,11 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -549,13 +626,13 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -565,16 +642,22 @@
       <c r="C11" s="1">
         <v>43272</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="C12">
         <v>1928</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -584,8 +667,11 @@
       <c r="C13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -595,8 +681,11 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -606,8 +695,11 @@
       <c r="C15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -621,12 +713,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -636,16 +728,22 @@
       <c r="C19" s="1">
         <v>43272</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="C20">
         <v>1948</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -655,8 +753,11 @@
       <c r="C21">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -666,8 +767,11 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -677,8 +781,11 @@
       <c r="C23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -689,52 +796,67 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>1</v>
       </c>
       <c r="C27" s="1">
         <v>43272</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>6</v>
       </c>
       <c r="C28">
         <v>2189</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>5</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -742,45 +864,57 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="3">
         <v>43272</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="4">
         <v>1990</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="4">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -788,7 +922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -796,53 +930,68 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>1</v>
       </c>
       <c r="C43" s="1">
         <v>43272</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>6</v>
       </c>
       <c r="C44">
         <v>2565</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>4</v>
       </c>
       <c r="C46" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -850,61 +999,86 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4">
       <c r="A50" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="3">
         <v>43272</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>6</v>
       </c>
       <c r="C52" s="4">
         <v>1516</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="4">
         <v>0.51</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>5</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="4">
         <v>1501</v>
       </c>
+      <c r="D56">
+        <v>1516</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>